--- a/Шаблоны/Scenar4.xlsx
+++ b/Шаблоны/Scenar4.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VR_1264\Шаблоны\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gerasimovskaya_1264\Шаблоны\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2227ED24-1D3F-4ABC-B565-909B1CFD3596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8693" yWindow="4583" windowWidth="15270" windowHeight="9202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="525" windowWidth="28800" windowHeight="15345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
     <sheet name="Выполнение" sheetId="3" r:id="rId2"/>
     <sheet name="Норматив" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="131">
   <si>
     <t>Дата прохождения:</t>
   </si>
@@ -82,18 +80,368 @@
   </si>
   <si>
     <t>Сценарий №4 Вывод в ремонт трансформатора</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Оборудования</t>
+  </si>
+  <si>
+    <t>Тип Действия</t>
+  </si>
+  <si>
+    <t>Доп Свойство</t>
+  </si>
+  <si>
+    <t>Последовательность действий</t>
+  </si>
+  <si>
+    <t>Вид операции</t>
+  </si>
+  <si>
+    <t>Основная</t>
+  </si>
+  <si>
+    <t>Проверочная</t>
+  </si>
+  <si>
+    <t>ПОТ</t>
+  </si>
+  <si>
+    <t>Критическая</t>
+  </si>
+  <si>
+    <t>Зафиксировать время.</t>
+  </si>
+  <si>
+    <t>На терминале горит светодиод: Неисправность ТН-1 35.</t>
+  </si>
+  <si>
+    <t>Произвести измерение напряжения на ТН-1 35 А0, В0, С0 по прибору.</t>
+  </si>
+  <si>
+    <t>Включить автомат цепей управления ЭМВ и ЭМО СВ 35.</t>
+  </si>
+  <si>
+    <t>Ключом управления отключить выключатель В 35 Т2.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение В 35 Т2 по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>На ключ управления В 35 Т2 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Ключом управления включить выключатель СВ 35.</t>
+  </si>
+  <si>
+    <t>Проверить включенное положение СВ 35 по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>Отключить автомат цепей управления ЭМВ и ЭМО В 35 Т2.</t>
+  </si>
+  <si>
+    <t>На автомат цепей управления ЭМВ и ЭМО В 35 Т2 вывесить плакаты «Не включать – работают люди».</t>
+  </si>
+  <si>
+    <t>Ключом резервирования перевести цепи напряжения с ТН-1 35 на ТН-2 35.</t>
+  </si>
+  <si>
+    <t>Проверить по сигнализации отсутствие сигнала неисправности цепей напряжения.</t>
+  </si>
+  <si>
+    <t>Осмотреть ТН-1 35 со всех сторон.</t>
+  </si>
+  <si>
+    <t>Проверить целостность диэлектрических перчаток.</t>
+  </si>
+  <si>
+    <t>Надеть диэлектрические перчатки.</t>
+  </si>
+  <si>
+    <t>Проверить исправность указателя напряжения 35 кВ прикосновением к токоведущим частям, заведомо находящимися под напряжением – жесткой ошиновке 35 кВ 2 секции шин.</t>
+  </si>
+  <si>
+    <t>Проверить наличие напряжения на каждом предохранителе с обеих сторон в течении времени не менее 5 сек. (напряжение есть на каждой стороне предохранителей фаз «А», «В», «С»).</t>
+  </si>
+  <si>
+    <t>Проверить работу видеорегистратора. Взять видеорегистратор в руки, включить его, на экране увидеть изображение, повесить на грудь.</t>
+  </si>
+  <si>
+    <t>Проверить визуально целостность диэлектрических перчаток.</t>
+  </si>
+  <si>
+    <t>Отключить автомат звезды РЗА ТН-1 35.</t>
+  </si>
+  <si>
+    <t>На автомат звезды РЗА ТН-1 35 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить автомат треугольника РЗА ТН-1 35.</t>
+  </si>
+  <si>
+    <t>На автомат треугольника РЗА ТН-1 35 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить автомат звезды учета ТН-1 35.</t>
+  </si>
+  <si>
+    <t>На автомат звезды учета ТН-1 35 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить рубильник звезды РЗА ТН-1 35.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение рубильника звезды РЗА ТН-1 35.</t>
+  </si>
+  <si>
+    <t>На привод рубильника звезды РЗА ТН-1 35 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить рубильник треугольника РЗА ТН-1 35.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение рубильника треугольника РЗА ТН-1 35.</t>
+  </si>
+  <si>
+    <t>На привод рубильника треугольника РЗА ТН-1 35 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Отключить рубильник звезды учета ТН-1 35.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение рубильника звезды учета ТН-1 35.</t>
+  </si>
+  <si>
+    <t>На привод рубильника звезды учета ТН-1 35 вывесить плакат «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Осмотреть опорно-стержневые изоляторы РТН-1 35.</t>
+  </si>
+  <si>
+    <t>Ключом управления разъединителя отключить РТН-1 35.</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение РТН-1 35 по сигнальной лампе.</t>
+  </si>
+  <si>
+    <t>На ключ управления разъединителя РТН-1 35 вывесить плакат: «НЕ ВКЛЮЧАТЬ! работают люди».</t>
+  </si>
+  <si>
+    <t>Проверить отключенное положение РТН-1 35.</t>
+  </si>
+  <si>
+    <t>Проверить диэлектрические перчатки на целостность.</t>
+  </si>
+  <si>
+    <t>Надеть перчатки.</t>
+  </si>
+  <si>
+    <t>Проверить исправность указателя напряжения прикосновением к токоведущим частям, заведомо находящимся под напряжением - к жесткой ошиновке 35 кВ 1 секции шин.</t>
+  </si>
+  <si>
+    <t>Проверить отсутствие напряжения на РТН-1 35 в сторону ТН-1 35 в течении времени не менее 5 сек.</t>
+  </si>
+  <si>
+    <t>Осмотреть опорно-стержневую изоляцию РТН-1 35.</t>
+  </si>
+  <si>
+    <t>Вставить блокировочный ключ.</t>
+  </si>
+  <si>
+    <t>Включить ЗНТ РТН-1 35.</t>
+  </si>
+  <si>
+    <t>Визуально проверить включенное состояние ЗНТ РТН-1 35.</t>
+  </si>
+  <si>
+    <t>На привод РТН-1 35 вывесить плакат «Заземлено».</t>
+  </si>
+  <si>
+    <t>Основная операция</t>
+  </si>
+  <si>
+    <t>Критично</t>
+  </si>
+  <si>
+    <t>Проверочная операция</t>
+  </si>
+  <si>
+    <t>Нарушение ПОТ</t>
+  </si>
+  <si>
+    <t>default_activate</t>
+  </si>
+  <si>
+    <t>сheck integrity</t>
+  </si>
+  <si>
+    <t>put on</t>
+  </si>
+  <si>
+    <t>ОПУ_6У_Бреслер</t>
+  </si>
+  <si>
+    <t>check voltage</t>
+  </si>
+  <si>
+    <t>ОПУ_ШРОТ_Автомат_СВ35</t>
+  </si>
+  <si>
+    <t>switch value to</t>
+  </si>
+  <si>
+    <t>ОПУ_4У_Ключ_В35Т2</t>
+  </si>
+  <si>
+    <t>change value to</t>
+  </si>
+  <si>
+    <t>ОПУ_4У_В35Т2_ЗелёнаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОПУ_4У_Плакат_В35Т2</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_Ключ_СВ35</t>
+  </si>
+  <si>
+    <t>put a sign</t>
+  </si>
+  <si>
+    <t>ОПУ_3У_СВ35_КраснаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОПУ_ШРОТ_Автомат_В35Т2</t>
+  </si>
+  <si>
+    <t>ОПУ_ШРОТ_Плакат_В35Т2</t>
+  </si>
+  <si>
+    <t>ОПУ_8Р_Ключ_ТН-2</t>
+  </si>
+  <si>
+    <t>ОПУ_6У_Сингализация</t>
+  </si>
+  <si>
+    <t>ОПУ_1У_Вольтметр_ТН-1-35</t>
+  </si>
+  <si>
+    <t>ОРУ35_35кВ_2секция</t>
+  </si>
+  <si>
+    <t>ОПУ_Видеорегистратор</t>
+  </si>
+  <si>
+    <t>ОРУ35_35кВ_1секция</t>
+  </si>
+  <si>
+    <t>ОРУ35_Блокировочный ключ</t>
+  </si>
+  <si>
+    <t>put a block</t>
+  </si>
+  <si>
+    <t>ОПУ_Часы</t>
+  </si>
+  <si>
+    <t>ОРУ35_ТН1_35</t>
+  </si>
+  <si>
+    <t>ОРУ35_РТН-1_35</t>
+  </si>
+  <si>
+    <t>ОРУ35_ТН1_35_A_B_C</t>
+  </si>
+  <si>
+    <t>ОРУ35_Автомат_Звезды_ТН-1_35</t>
+  </si>
+  <si>
+    <t>ОРУ35_Автомат_Треугольник_ТН-1_35</t>
+  </si>
+  <si>
+    <t>ОРУ35_Автомат_Звезды_Учёта_ТН-1-35</t>
+  </si>
+  <si>
+    <t>ОРУ35_Плакат_Звезды_ТН-1_35</t>
+  </si>
+  <si>
+    <t>ОРУ35_Плакат_Треугольник_ТН-1_35</t>
+  </si>
+  <si>
+    <t>ОРУ35_Плакат_Звезды_Учёта_ТН-1_35</t>
+  </si>
+  <si>
+    <t>ОРУ35_Рубильник_Звезды_ТН-1_35</t>
+  </si>
+  <si>
+    <t>ОРУ35_Рубильник_Треугольник_ТН-1_35</t>
+  </si>
+  <si>
+    <t>ОРУ35_Рубильник_Звезды_Учёта_ТН-1_35</t>
+  </si>
+  <si>
+    <t>ОПУ_1У_Ключ_РТН-1_35</t>
+  </si>
+  <si>
+    <t>ОПУ_1У_РТН-1_35_ЗелёнаяСигнальнаяЛампа</t>
+  </si>
+  <si>
+    <t>ОПУ_1У_Плакат_РТН-1_35</t>
+  </si>
+  <si>
+    <t>ОРУ35_Плакат_ТН-1_35</t>
+  </si>
+  <si>
+    <t>ОРУ_Перчатки_Проверить</t>
+  </si>
+  <si>
+    <t>ОРУ_Перчатки_Надеть</t>
+  </si>
+  <si>
+    <t>ОРУ35_Рубильник_Треугольник</t>
+  </si>
+  <si>
+    <t>ОРУ35_Рубильник_Звезды</t>
+  </si>
+  <si>
+    <t>ОРУ35_Рубильник_Звезды_Учёта</t>
+  </si>
+  <si>
+    <t>ОРУ35_Плакат_Рубильник_Треугольник_ТН-1_35</t>
+  </si>
+  <si>
+    <t>ОРУ35_Плакат_Рубильник_Звезды_Учёта_ТН-1_35</t>
+  </si>
+  <si>
+    <t>ОРУ35_Плакат_Рубильник_Звезды_ТН-1_35</t>
+  </si>
+  <si>
+    <t>ОРУ35_ЗНТ_РТН-1_35</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -116,6 +464,47 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -131,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,15 +528,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -427,21 +843,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="4" width="13.53125" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -449,16 +865,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -466,7 +882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -474,7 +890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -485,7 +901,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -493,7 +909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -504,7 +920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -515,7 +931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -529,7 +945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -544,25 +960,995 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB7E95B-9464-4CBF-82F3-843C20175B21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6E063E-1CE8-43A5-BBBA-30AA7E29F73F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Шаблоны/Scenar4.xlsx
+++ b/Шаблоны/Scenar4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="345" yWindow="525" windowWidth="28800" windowHeight="15345" activeTab="2"/>
+    <workbookView xWindow="345" yWindow="525" windowWidth="28800" windowHeight="15345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -428,6 +428,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -564,6 +567,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -871,7 +875,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45463</v>
+        <v>45470</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,12 +965,277 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B85"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="12"/>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="12"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="12"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="12"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="12"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="12"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="12"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="12"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="12"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="12"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="12"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="12"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="12"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="12"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="12"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="12"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76" s="12"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="12"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="12"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" s="12"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" s="12"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="12"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" s="12"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -975,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>

--- a/Шаблоны/Scenar4.xlsx
+++ b/Шаблоны/Scenar4.xlsx
@@ -875,7 +875,7 @@
       </c>
       <c r="B2" s="3">
         <f ca="1">TODAY()</f>
-        <v>45470</v>
+        <v>45555</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -967,9 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B85"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
